--- a/ONCHO/Impact Assessments/Burkina Faso/bf_oncho_pre_stop_1_202312_village.xlsx
+++ b/ONCHO/Impact Assessments/Burkina Faso/bf_oncho_pre_stop_1_202312_village.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yumbad\Repositories\dsa-forms\ONCHO\Impact Assessments\Burkina Faso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6168B02E-2AF8-4FBD-B125-E5E6B7C03238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2B03A1-9E81-4E43-8A99-1149880912C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="566">
   <si>
     <t>type</t>
   </si>
@@ -1734,15 +1734,6 @@
   </si>
   <si>
     <t>bf_oncho_pre_stop_1_202312_village</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>06</t>
   </si>
   <si>
     <t>(Dec 2023) ONCHO - 1. Formulaire Village</t>
@@ -2225,8 +2216,8 @@
   </sheetPr>
   <dimension ref="A1:M32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,11 +2524,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2600,61 +2591,67 @@
         <v>485</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>482</v>
-      </c>
-      <c r="B5" t="s">
-        <v>565</v>
-      </c>
-      <c r="C5" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>482</v>
-      </c>
-      <c r="B6" t="s">
-        <v>566</v>
-      </c>
-      <c r="C6" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>482</v>
-      </c>
-      <c r="B7" t="s">
-        <v>567</v>
-      </c>
-      <c r="C7" t="s">
-        <v>567</v>
-      </c>
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>532</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>561</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="D8" s="14"/>
       <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>561</v>
+        <v>534</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
@@ -2664,149 +2661,152 @@
         <v>534</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>534</v>
+      <c r="A11" s="14" t="s">
+        <v>529</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>536</v>
+        <v>24</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>536</v>
-      </c>
-      <c r="D11" s="14"/>
+        <v>24</v>
+      </c>
+      <c r="D11" s="13"/>
       <c r="E11" s="14"/>
     </row>
     <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>534</v>
+      <c r="A12" s="14" t="s">
+        <v>529</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="D12" s="14"/>
+        <v>530</v>
+      </c>
+      <c r="D12" s="13"/>
       <c r="E12" s="14"/>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>534</v>
+      <c r="A13" s="14" t="s">
+        <v>529</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-    </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>530</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>530</v>
+      <c r="A15" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>487</v>
       </c>
       <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
     </row>
     <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="14" t="s">
-        <v>529</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>531</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
+      <c r="A16" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>486</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D17" s="13"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>486</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D18" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>491</v>
+      </c>
+      <c r="B20" t="s">
+        <v>492</v>
+      </c>
+      <c r="C20" t="s">
+        <v>492</v>
+      </c>
+      <c r="D20" t="s">
         <v>487</v>
       </c>
-      <c r="C18" s="10" t="s">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>491</v>
+      </c>
+      <c r="B21" t="s">
+        <v>493</v>
+      </c>
+      <c r="C21" t="s">
+        <v>493</v>
+      </c>
+      <c r="D21" t="s">
         <v>487</v>
       </c>
-      <c r="D18" s="13"/>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>486</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="D21" s="13"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>491</v>
+      </c>
+      <c r="B22" t="s">
+        <v>494</v>
+      </c>
+      <c r="C22" t="s">
+        <v>494</v>
+      </c>
+      <c r="D22" t="s">
+        <v>487</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>491</v>
       </c>
       <c r="B23" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C23" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="D23" t="s">
         <v>487</v>
@@ -2817,13 +2817,13 @@
         <v>491</v>
       </c>
       <c r="B24" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C24" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="D24" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -2831,13 +2831,13 @@
         <v>491</v>
       </c>
       <c r="B25" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C25" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="D25" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -2845,13 +2845,13 @@
         <v>491</v>
       </c>
       <c r="B26" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C26" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D26" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -2859,13 +2859,13 @@
         <v>491</v>
       </c>
       <c r="B27" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C27" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="D27" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -2873,13 +2873,13 @@
         <v>491</v>
       </c>
       <c r="B28" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C28" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D28" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -2887,13 +2887,13 @@
         <v>491</v>
       </c>
       <c r="B29" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C29" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="D29" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -2901,10 +2901,10 @@
         <v>491</v>
       </c>
       <c r="B30" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C30" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="D30" t="s">
         <v>489</v>
@@ -2915,13 +2915,13 @@
         <v>491</v>
       </c>
       <c r="B31" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="C31" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="D31" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -2929,13 +2929,13 @@
         <v>491</v>
       </c>
       <c r="B32" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C32" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="D32" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
@@ -2943,13 +2943,13 @@
         <v>491</v>
       </c>
       <c r="B33" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C33" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="D33" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
@@ -2957,55 +2957,55 @@
         <v>491</v>
       </c>
       <c r="B34" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C34" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="D34" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>491</v>
-      </c>
-      <c r="B35" t="s">
-        <v>504</v>
-      </c>
-      <c r="C35" t="s">
-        <v>504</v>
-      </c>
-      <c r="D35" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>491</v>
-      </c>
-      <c r="B36" t="s">
-        <v>505</v>
-      </c>
-      <c r="C36" t="s">
-        <v>505</v>
-      </c>
-      <c r="D36" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>491</v>
-      </c>
-      <c r="B37" t="s">
-        <v>506</v>
-      </c>
-      <c r="C37" t="s">
-        <v>506</v>
-      </c>
-      <c r="D37" t="s">
-        <v>490</v>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>508</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3013,27 +3013,27 @@
         <v>508</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="B40" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>519</v>
-      </c>
-      <c r="E40" s="14" t="s">
-        <v>499</v>
+      <c r="B40" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>503</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3041,13 +3041,13 @@
         <v>508</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3055,13 +3055,13 @@
         <v>508</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3069,13 +3069,13 @@
         <v>508</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3083,13 +3083,13 @@
         <v>508</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3097,13 +3097,13 @@
         <v>508</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3111,13 +3111,13 @@
         <v>508</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -3125,27 +3125,27 @@
         <v>508</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="B48" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>526</v>
-      </c>
-      <c r="E48" s="13" t="s">
-        <v>505</v>
+      <c r="B48" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>509</v>
+      </c>
+      <c r="E48" s="14" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3153,13 +3153,13 @@
         <v>508</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3167,27 +3167,27 @@
         <v>508</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>508</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="C51" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>492</v>
+      <c r="B51" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3195,13 +3195,13 @@
         <v>508</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>504</v>
+        <v>493</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3209,13 +3209,13 @@
         <v>508</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>527</v>
+        <v>516</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3223,13 +3223,13 @@
         <v>508</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3237,55 +3237,55 @@
         <v>508</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="E56" s="13" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A57" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="E57" s="13" t="s">
-        <v>498</v>
+        <v>539</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>509</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="15" x14ac:dyDescent="0.2">
       <c r="A58" s="13" t="s">
-        <v>508</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>518</v>
-      </c>
-      <c r="E58" s="13" t="s">
-        <v>498</v>
+        <v>539</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>511</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3293,13 +3293,13 @@
         <v>539</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C60" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>509</v>
+        <v>543</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3307,13 +3307,13 @@
         <v>539</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="C61" s="14" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3321,13 +3321,13 @@
         <v>539</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="C62" s="14" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3335,13 +3335,13 @@
         <v>539</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="C63" s="14" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F63" s="13" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3349,13 +3349,13 @@
         <v>539</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C64" s="14" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F64" s="13" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3363,13 +3363,13 @@
         <v>539</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="C65" s="14" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3377,13 +3377,13 @@
         <v>539</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="C66" s="14" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F66" s="13" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3391,13 +3391,13 @@
         <v>539</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="C67" s="14" t="s">
-        <v>547</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>516</v>
+        <v>550</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>519</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3405,13 +3405,13 @@
         <v>539</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="C68" s="14" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F68" s="13" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3419,13 +3419,13 @@
         <v>539</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3433,13 +3433,13 @@
         <v>539</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="C70" s="14" t="s">
-        <v>550</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>519</v>
+        <v>553</v>
+      </c>
+      <c r="F70" s="13" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3447,13 +3447,13 @@
         <v>539</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="C71" s="14" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F71" s="13" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3461,13 +3461,13 @@
         <v>539</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="C72" s="14" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F72" s="13" t="s">
-        <v>521</v>
+        <v>503</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3475,13 +3475,13 @@
         <v>539</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F73" s="13" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3489,13 +3489,13 @@
         <v>539</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F74" s="13" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3503,13 +3503,13 @@
         <v>539</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F75" s="13" t="s">
-        <v>503</v>
+        <v>526</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="15" x14ac:dyDescent="0.2">
@@ -3517,68 +3517,26 @@
         <v>539</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="B77" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="C77" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="C78" s="14" t="s">
-        <v>558</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="F79" s="13" t="s">
         <v>527</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A39:D58">
-    <sortCondition ref="D39:D58"/>
-    <sortCondition ref="A39:A58"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A36:D55">
+    <sortCondition ref="D36:D55"/>
+    <sortCondition ref="A36:A55"/>
   </sortState>
   <phoneticPr fontId="8" type="noConversion"/>
-  <conditionalFormatting sqref="B60:B79">
+  <conditionalFormatting sqref="B57:B76">
     <cfRule type="duplicateValues" dxfId="4" priority="1"/>
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C60:C79">
+  <conditionalFormatting sqref="C57:C76">
     <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -3598,7 +3556,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -3626,7 +3584,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>564</v>
